--- a/Tip graph.xlsx
+++ b/Tip graph.xlsx
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -345,6 +345,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -546,11 +547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114602080"/>
-        <c:axId val="1764595936"/>
+        <c:axId val="1763634336"/>
+        <c:axId val="-2014624560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114602080"/>
+        <c:axId val="1763634336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,12 +608,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1764595936"/>
+        <c:crossAx val="-2014624560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1764595936"/>
+        <c:axId val="-2014624560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114602080"/>
+        <c:crossAx val="1763634336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2310,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3317,6 +3318,12 @@
       <c r="G42">
         <v>243</v>
       </c>
+      <c r="H42" s="17">
+        <v>43220</v>
+      </c>
+      <c r="I42" s="17">
+        <v>43248</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
